--- a/files/Digital_To_EMU_Input_Sheet.xlsx
+++ b/files/Digital_To_EMU_Input_Sheet.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Gaurav K\GIT Repo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01824733-3514-4B63-B389-A9C43872A954}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1664F975-6414-486A-A00D-9CE466819FBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" xr2:uid="{6EF23657-5B87-4AD7-85BD-757921925889}"/>
   </bookViews>
@@ -55,12 +55,37 @@
         </r>
       </text>
     </comment>
+    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{E75BEEEF-3024-4BEF-9754-36AB65F2B356}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>HP:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+For secret Migration
+</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="17">
   <si>
     <t>Source Repo</t>
   </si>
@@ -108,6 +133,9 @@
   </si>
   <si>
     <t>Destination PAT</t>
+  </si>
+  <si>
+    <t>Destination Repository ID</t>
   </si>
 </sst>
 </file>
@@ -479,10 +507,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A31B6851-E456-4EFE-BA79-F7D87B82BE8C}">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -495,9 +523,10 @@
     <col min="6" max="6" width="16.26953125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="35.453125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="19.90625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -522,8 +551,11 @@
       <c r="H1" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="I1" s="1" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -553,8 +585,11 @@
         <f>IF(D2="SHARED","SHARED_TOKEN", IF(D2="CONFIDENTIAL","CONFIDENTIAL_TOKEN",""))</f>
         <v>SHARED_TOKEN</v>
       </c>
+      <c r="I2">
+        <v>768239351</v>
+      </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -584,8 +619,11 @@
         <f t="shared" ref="H3:H6" si="3">IF(D3="SHARED","SHARED_TOKEN", IF(D3="CONFIDENTIAL","CONFIDENTIAL_TOKEN",""))</f>
         <v>CONFIDENTIAL_TOKEN</v>
       </c>
+      <c r="I3">
+        <v>435466545</v>
+      </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -615,8 +653,11 @@
         <f t="shared" si="3"/>
         <v>SHARED_TOKEN</v>
       </c>
+      <c r="I4">
+        <v>658685674</v>
+      </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -646,8 +687,11 @@
         <f t="shared" si="3"/>
         <v>SHARED_TOKEN</v>
       </c>
+      <c r="I5">
+        <v>764353440</v>
+      </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -676,6 +720,9 @@
       <c r="H6" t="str">
         <f t="shared" si="3"/>
         <v>CONFIDENTIAL_TOKEN</v>
+      </c>
+      <c r="I6">
+        <v>924334354</v>
       </c>
     </row>
   </sheetData>
